--- a/biology/Zoologie/Cymatioa/Cymatioa.xlsx
+++ b/biology/Zoologie/Cymatioa/Cymatioa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cymatioa est un genre de mollusques bivalves, de la famille des Galeommatidae (selon WoRMS)[1] ou des Lasaeidae (selon ITIS)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cymatioa est un genre de mollusques bivalves, de la famille des Galeommatidae (selon WoRMS) ou des Lasaeidae (selon ITIS).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cymatioa est attribué à Samuel Stillman Berry (1887-1984)[1] qui l'avait initialement créé en 1963 sous le nom Crenimargo, nom qui est déjà occupé. En 1964, les malacologistes américains Donald Robert Shasky (d) (1925-2002) et G. Bruce Campbell (d) (1934-1973) renomme le genre en Cymatioa[3] tout en conservant son auteur initial et en renommant l'espèce type Cymatioa electilis (nl) (Berry, 1963) initialement créée sous le taxon Crenimargo electilis Berry, 1963[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cymatioa est attribué à Samuel Stillman Berry (1887-1984) qui l'avait initialement créé en 1963 sous le nom Crenimargo, nom qui est déjà occupé. En 1964, les malacologistes américains Donald Robert Shasky (d) (1925-2002) et G. Bruce Campbell (d) (1934-1973) renomme le genre en Cymatioa tout en conservant son auteur initial et en renommant l'espèce type Cymatioa electilis (nl) (Berry, 1963) initialement créée sous le taxon Crenimargo electilis Berry, 1963.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 novembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 novembre 2022) :
 Cymatioa adamsi (Angas, 1868)
 Cymatioa agilis (Lützen &amp; C. Nielsen, 2005)
 Cymatioa cookae (Willett, 1937)
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Donald R. Shasky et G. Bruce Campbell, « New and otherwise interesting species of mollusks from Guaymas, Sonora, Mexico », The Veliger, vol. 7, no 2,‎ 1964, p. 114-120 (ISSN 0042-3211, OCLC 1768969, lire en ligne)</t>
         </is>
